--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zacc\Documents\StS Modding\StS-DefaultModBase-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F272E0-E206-43AC-A355-57AD637FA17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12CF03-6BF0-4B87-9CE6-9950F2E6D65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{810DA3B1-C32A-4683-9C56-556E1105B840}"/>
+    <workbookView xWindow="6945" yWindow="1995" windowWidth="17220" windowHeight="12750" xr2:uid="{810DA3B1-C32A-4683-9C56-556E1105B840}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Slots" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="156">
   <si>
     <t>Character Name</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Seeing Red</t>
   </si>
   <si>
-    <t>BloodlettingBrutality</t>
-  </si>
-  <si>
     <t>Reckless Charge</t>
   </si>
   <si>
@@ -414,6 +411,99 @@
   </si>
   <si>
     <t>Renounce deck</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>Large Expensive Damage</t>
+  </si>
+  <si>
+    <t>Rough Description</t>
+  </si>
+  <si>
+    <t>LD Power</t>
+  </si>
+  <si>
+    <t>Smoke Screen</t>
+  </si>
+  <si>
+    <t>Soul Strike</t>
+  </si>
+  <si>
+    <t>Bloodletting</t>
+  </si>
+  <si>
+    <t>Brutality</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>Scales itself in combat</t>
+  </si>
+  <si>
+    <t>Next time you play a pick a path card, get both</t>
+  </si>
+  <si>
+    <t>Scales with Strength</t>
+  </si>
+  <si>
+    <t>Card Selection</t>
+  </si>
+  <si>
+    <t>Cheap attack w 'downside'</t>
+  </si>
+  <si>
+    <t>Card draw w downside</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Exhaust Armor</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Attack w 'downside'</t>
+  </si>
+  <si>
+    <t>Damage (draw)</t>
+  </si>
+  <si>
+    <t>Aoe &amp; AOE Debuff</t>
+  </si>
+  <si>
+    <t>Multi attack</t>
+  </si>
+  <si>
+    <t>Temp Strength</t>
+  </si>
+  <si>
+    <t>Conditional Damage</t>
+  </si>
+  <si>
+    <t>Block with ""</t>
+  </si>
+  <si>
+    <t>Block (draw)</t>
+  </si>
+  <si>
+    <t>Block and Damage</t>
+  </si>
+  <si>
+    <t>Aoe</t>
+  </si>
+  <si>
+    <t>~Vampire Bat</t>
   </si>
 </sst>
 </file>
@@ -429,15 +519,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE09090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6D870"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1E2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -454,19 +562,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC1E2E9"/>
+      <color rgb="FFE6D870"/>
+      <color rgb="FFD5B35D"/>
+      <color rgb="FFFBD637"/>
+      <color rgb="FFE09090"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -775,400 +906,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA986D6-E9D6-4B2C-895B-951A495A36D0}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>119</v>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="A8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="A12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="A13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+      <c r="D72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1220,27 +1652,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zacc\Documents\StS Modding\StS-DefaultModBase-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12CF03-6BF0-4B87-9CE6-9950F2E6D65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FC2B9-697B-4C9B-87DD-1F85722C8042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="1995" windowWidth="17220" windowHeight="12750" xr2:uid="{810DA3B1-C32A-4683-9C56-556E1105B840}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{810DA3B1-C32A-4683-9C56-556E1105B840}"/>
   </bookViews>
   <sheets>
-    <sheet name="Card Slots" sheetId="4" r:id="rId1"/>
+    <sheet name="(Ironclad) Card Slots" sheetId="4" r:id="rId1"/>
     <sheet name="Mechanics" sheetId="1" r:id="rId2"/>
     <sheet name="Archetypes" sheetId="5" r:id="rId3"/>
     <sheet name="Names and Flavour" sheetId="3" r:id="rId4"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="176">
   <si>
     <t>Character Name</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Split Cards</t>
   </si>
   <si>
-    <t>Rare</t>
-  </si>
-  <si>
     <t>Large AOE</t>
   </si>
   <si>
@@ -413,12 +410,6 @@
     <t>Renounce deck</t>
   </si>
   <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Uncommon</t>
-  </si>
-  <si>
     <t>Large Expensive Damage</t>
   </si>
   <si>
@@ -440,9 +431,6 @@
     <t>Brutality</t>
   </si>
   <si>
-    <t>Starter</t>
-  </si>
-  <si>
     <t>Scales itself in combat</t>
   </si>
   <si>
@@ -485,32 +473,104 @@
     <t>Multi attack</t>
   </si>
   <si>
-    <t>Temp Strength</t>
-  </si>
-  <si>
-    <t>Conditional Damage</t>
-  </si>
-  <si>
-    <t>Block with ""</t>
-  </si>
-  <si>
     <t>Block (draw)</t>
   </si>
   <si>
-    <t>Block and Damage</t>
-  </si>
-  <si>
     <t>Aoe</t>
   </si>
   <si>
     <t>~Vampire Bat</t>
+  </si>
+  <si>
+    <t>Masochism</t>
+  </si>
+  <si>
+    <t>Flagellation</t>
+  </si>
+  <si>
+    <t>Scaling Damage</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Meta-Scaling</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Scaling Strength</t>
+  </si>
+  <si>
+    <t>Conditionally cheap damage</t>
+  </si>
+  <si>
+    <t>Conditional damage</t>
+  </si>
+  <si>
+    <t>Temp strength</t>
+  </si>
+  <si>
+    <t>Block and damage</t>
+  </si>
+  <si>
+    <t>Triggerable draw</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>(3) Rare</t>
+  </si>
+  <si>
+    <t>(1) Common</t>
+  </si>
+  <si>
+    <t>(0) Starter</t>
+  </si>
+  <si>
+    <t>(2) Uncommon</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Card type</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Block w 'downside'</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Ironclad Card</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,8 +578,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFEE8E2E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFBD637"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFA17BD3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF6565"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,8 +667,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0B4D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -571,31 +706,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC1E2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE09090"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC1E2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFC1E2E9"/>
-      <color rgb="FFE6D870"/>
-      <color rgb="FFD5B35D"/>
+      <color rgb="FFD0B4D1"/>
+      <color rgb="FFD7CFD7"/>
+      <color rgb="FFDDDDDD"/>
+      <color rgb="FFFF6565"/>
+      <color rgb="FFA17BD3"/>
+      <color rgb="FF8F52C2"/>
+      <color rgb="FF986FCF"/>
       <color rgb="FFFBD637"/>
-      <color rgb="FFE09090"/>
-      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFB41D"/>
+      <color rgb="FFFFCC66"/>
     </mruColors>
   </colors>
   <extLst>
@@ -607,6 +918,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0148D23C-D84D-4C35-ABC8-E266A2C7BB31}" name="Table2" displayName="Table2" ref="A2:N75" totalsRowShown="0">
+  <autoFilter ref="A2:N75" xr:uid="{62B97CED-EDD0-4F8C-B092-80F419842B99}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N75">
+    <sortCondition ref="B2:B75"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="16385" xr3:uid="{3AFFC022-BA4B-4088-B858-1AF3E2DDEBBF}" name="Card type" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{620E7D65-0494-421B-9261-D668AA63B4FC}" name="Rarity" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{373554D5-8D51-403B-B9C6-6F3002A75B3C}" name="Damage" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6A9CD676-DE42-4765-8A72-694521FB47FD}" name="Defense"/>
+    <tableColumn id="4" xr3:uid="{B20BA7C5-FDF0-42B1-934D-E8987851AECC}" name="Draw"/>
+    <tableColumn id="5" xr3:uid="{4CC6FE2B-AE93-4281-BF19-29EF63622945}" name="Mana"/>
+    <tableColumn id="6" xr3:uid="{A76C2448-9BB0-447A-A910-0923FCCAA5C2}" name="Scaling"/>
+    <tableColumn id="7" xr3:uid="{FACDCF9A-1B15-4701-AF47-5081E61B2EC7}" name="Meta-Scaling" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4C7B52E4-70F3-406F-BA12-63D3CEE29BD6}" name="Rough Description"/>
+    <tableColumn id="9" xr3:uid="{5EEF630E-0173-4186-925F-07B2ED3CB11C}" name="Ironclad Card" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{FF97BE3B-6822-48D8-9BB3-BA851643F3B5}" name="LightDark"/>
+    <tableColumn id="11" xr3:uid="{526884E1-6C09-414C-B061-3F6866506A22}" name="Column3"/>
+    <tableColumn id="12" xr3:uid="{895BD373-09BB-4A34-BC99-2295D53CB894}" name="Column4"/>
+    <tableColumn id="13" xr3:uid="{7EB349B8-880F-4662-8E29-52203C41895B}" name="Column5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -906,701 +1243,1677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA986D6-E9D6-4B2C-895B-951A495A36D0}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3"/>
+      <c r="J3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1"/>
+      <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="1"/>
+      <c r="J6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="J10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="J11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="J19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="J20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="J22" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="1"/>
+      <c r="I23" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="1"/>
+      <c r="I24" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="1"/>
+      <c r="J25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="J26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="J27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="J28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="J29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="J30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="J31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="J32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="J36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="J37" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="J38" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="J39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="J40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="J41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="J42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="J45" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="J46" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="J47" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="J48" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" t="s">
+        <v>161</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="1"/>
+      <c r="J50" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="J51" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="1"/>
+      <c r="J52" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="1"/>
+      <c r="J53" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="1"/>
+      <c r="J54" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="1"/>
+      <c r="J55" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="1"/>
+      <c r="I56" t="s">
+        <v>157</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="1"/>
+      <c r="J57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" t="s">
+        <v>156</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="1"/>
+      <c r="J59" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="1"/>
+      <c r="I60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="1"/>
+      <c r="J62" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="1"/>
+      <c r="J63" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" t="s">
+        <v>150</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="1"/>
+      <c r="J66" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="1"/>
+      <c r="J67" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="1"/>
+      <c r="J68" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="1"/>
+      <c r="I69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="1"/>
+      <c r="J70" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="K70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="1"/>
+      <c r="I71" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="J71" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="1"/>
+      <c r="J72" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="1"/>
+      <c r="J73" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="2" t="s">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="J74" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="2" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="12"/>
+      <c r="J75" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>117</v>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>COUNTIF(A3:A75,"Attack")&amp;"/"&amp;COUNTIF(A3:A75,"Skill")&amp;"/"&amp;COUNTIF(A3:A75,"Power")</f>
+        <v>31/28/14</v>
+      </c>
+      <c r="B76" t="str">
+        <f>COUNTIF(B3:B75,"(0) Starter")&amp;"/"&amp;COUNTIF(B3:B75,"(1) Common")&amp;"/"&amp;COUNTIF(B3:B75,"(2) Uncommon")&amp;"/"&amp;COUNTIF(B3:B75,"(3) Rare")</f>
+        <v>1/21/35/16</v>
+      </c>
+      <c r="C76">
+        <f>COUNTIF(C3:C75,"TRUE")</f>
+        <v>37</v>
+      </c>
+      <c r="D76">
+        <f>COUNTIF(D3:D75,"TRUE")</f>
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <f>COUNTIF(E3:E75,"TRUE")</f>
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <f>COUNTIF(F3:F75,"TRUE")</f>
+        <v>7</v>
+      </c>
+      <c r="G76">
+        <f>COUNTIF(G3:G75,"TRUE")</f>
+        <v>8</v>
+      </c>
+      <c r="H76">
+        <f>COUNTIF(H3:H75,"TRUE")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="C77" s="14">
+        <f>C76/73</f>
+        <v>0.50684931506849318</v>
+      </c>
+      <c r="D77" s="14">
+        <f t="shared" ref="D77:H77" si="0">D76/73</f>
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="E77" s="14">
+        <f t="shared" si="0"/>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="F77" s="14">
+        <f t="shared" si="0"/>
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="G77" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="H77" s="14">
+        <f t="shared" si="0"/>
+        <v>2.7397260273972601E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1652,27 +2965,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zacc\Documents\StS Modding\StS-DefaultModBase-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FC2B9-697B-4C9B-87DD-1F85722C8042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EC0DCC-523C-4F54-A509-F309A031F4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{810DA3B1-C32A-4683-9C56-556E1105B840}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{810DA3B1-C32A-4683-9C56-556E1105B840}"/>
   </bookViews>
   <sheets>
     <sheet name="(Ironclad) Card Slots" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="216">
   <si>
     <t>Character Name</t>
   </si>
@@ -410,9 +410,6 @@
     <t>Renounce deck</t>
   </si>
   <si>
-    <t>Large Expensive Damage</t>
-  </si>
-  <si>
     <t>Rough Description</t>
   </si>
   <si>
@@ -437,12 +434,6 @@
     <t>Next time you play a pick a path card, get both</t>
   </si>
   <si>
-    <t>Scales with Strength</t>
-  </si>
-  <si>
-    <t>Card Selection</t>
-  </si>
-  <si>
     <t>Cheap attack w 'downside'</t>
   </si>
   <si>
@@ -452,9 +443,6 @@
     <t>Mana</t>
   </si>
   <si>
-    <t>Exhaust Armor</t>
-  </si>
-  <si>
     <t>Armor</t>
   </si>
   <si>
@@ -467,9 +455,6 @@
     <t>Damage (draw)</t>
   </si>
   <si>
-    <t>Aoe &amp; AOE Debuff</t>
-  </si>
-  <si>
     <t>Multi attack</t>
   </si>
   <si>
@@ -488,9 +473,6 @@
     <t>Flagellation</t>
   </si>
   <si>
-    <t>Scaling Damage</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -506,9 +488,6 @@
     <t>Defense</t>
   </si>
   <si>
-    <t>Scaling Strength</t>
-  </si>
-  <si>
     <t>Conditionally cheap damage</t>
   </si>
   <si>
@@ -533,6 +512,15 @@
     <t>Column5</t>
   </si>
   <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
     <t>Rarity</t>
   </si>
   <si>
@@ -564,13 +552,145 @@
   </si>
   <si>
     <t>Ironclad Card</t>
+  </si>
+  <si>
+    <t>Draw 2 from draw pile/Draw 2 from discard</t>
+  </si>
+  <si>
+    <t>Permanent enemy debuff</t>
+  </si>
+  <si>
+    <t>Aoe &amp; AOE debuff</t>
+  </si>
+  <si>
+    <t>Scales with strength</t>
+  </si>
+  <si>
+    <t>Armor and scaling</t>
+  </si>
+  <si>
+    <t>Card selection</t>
+  </si>
+  <si>
+    <t>Damage and card selection</t>
+  </si>
+  <si>
+    <t>Exhaust armor</t>
+  </si>
+  <si>
+    <t>Scaling strength</t>
+  </si>
+  <si>
+    <t>Scaling damage</t>
+  </si>
+  <si>
+    <t>Large expensive damage</t>
+  </si>
+  <si>
+    <t>Tutor</t>
+  </si>
+  <si>
+    <t>Draw a card from your discard pile, then lose health equal to its cost</t>
+  </si>
+  <si>
+    <t>Gain _ light. Deal damage equal to your light</t>
+  </si>
+  <si>
+    <t>When you gain dark, soulheal _</t>
+  </si>
+  <si>
+    <t>When you would gain block, soulheal that much instead (or soulheal half that much?)</t>
+  </si>
+  <si>
+    <t>When you soulheal, deal that mcuh damage to each enemy</t>
+  </si>
+  <si>
+    <t>Lose your block then soul heal for that much. Exhaust.</t>
+  </si>
+  <si>
+    <t>"Revoke" a card, then gain 1 mana</t>
+  </si>
+  <si>
+    <t>Deal damage equal to two times your light</t>
+  </si>
+  <si>
+    <t>Block equal to two times your dark</t>
+  </si>
+  <si>
+    <t>Part/Parcel</t>
+  </si>
+  <si>
+    <t>Sorrow</t>
+  </si>
+  <si>
+    <t>Heartbreak</t>
+  </si>
+  <si>
+    <t>Misery</t>
+  </si>
+  <si>
+    <t>Melancholy</t>
+  </si>
+  <si>
+    <t>Heartache</t>
+  </si>
+  <si>
+    <t>Weeping</t>
+  </si>
+  <si>
+    <t>Woe</t>
+  </si>
+  <si>
+    <t>Mourning</t>
+  </si>
+  <si>
+    <t>Grief</t>
+  </si>
+  <si>
+    <t>aka Soul Health</t>
+  </si>
+  <si>
+    <t>Mechanics</t>
+  </si>
+  <si>
+    <t>Possible Mechanics</t>
+  </si>
+  <si>
+    <t>Choose one of two options. The card becomes that option until the end of combat.</t>
+  </si>
+  <si>
+    <t>Choosing one option provides you with a stack of light, while the other option gives you a stack of dark. These stacks can be referenced by other cards</t>
+  </si>
+  <si>
+    <t>Gain health that is lost at the end of combat. Acts like a sort of Block that does not go away at the end of each turn, but is capped by your max HP.</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>Since Soul Healing counts as healing, things can proc off of healing</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Gain n stacks of Smoke. Dodge attacks that deal damage equal to or less than your stacks of Smoke</t>
+  </si>
+  <si>
+    <t>A card that you selected an option for goes back to its original form</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>If the card with cycling is in your hand at the end of your turn, draw an extra card next turn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +757,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF6565"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -817,15 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -839,20 +956,21 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC1E2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -893,6 +1011,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC1E2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -921,26 +1047,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0148D23C-D84D-4C35-ABC8-E266A2C7BB31}" name="Table2" displayName="Table2" ref="A2:N75" totalsRowShown="0">
-  <autoFilter ref="A2:N75" xr:uid="{62B97CED-EDD0-4F8C-B092-80F419842B99}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0148D23C-D84D-4C35-ABC8-E266A2C7BB31}" name="Table2" displayName="Table2" ref="A2:Q75" totalsRowShown="0">
+  <autoFilter ref="A2:Q75" xr:uid="{62B97CED-EDD0-4F8C-B092-80F419842B99}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N75">
     <sortCondition ref="B2:B75"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="16385" xr3:uid="{3AFFC022-BA4B-4088-B858-1AF3E2DDEBBF}" name="Card type" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{620E7D65-0494-421B-9261-D668AA63B4FC}" name="Rarity" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{373554D5-8D51-403B-B9C6-6F3002A75B3C}" name="Damage" dataDxfId="3"/>
+  <tableColumns count="17">
+    <tableColumn id="16385" xr3:uid="{3AFFC022-BA4B-4088-B858-1AF3E2DDEBBF}" name="Card type" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{620E7D65-0494-421B-9261-D668AA63B4FC}" name="Rarity" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{373554D5-8D51-403B-B9C6-6F3002A75B3C}" name="Damage" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{6A9CD676-DE42-4765-8A72-694521FB47FD}" name="Defense"/>
     <tableColumn id="4" xr3:uid="{B20BA7C5-FDF0-42B1-934D-E8987851AECC}" name="Draw"/>
     <tableColumn id="5" xr3:uid="{4CC6FE2B-AE93-4281-BF19-29EF63622945}" name="Mana"/>
     <tableColumn id="6" xr3:uid="{A76C2448-9BB0-447A-A910-0923FCCAA5C2}" name="Scaling"/>
-    <tableColumn id="7" xr3:uid="{FACDCF9A-1B15-4701-AF47-5081E61B2EC7}" name="Meta-Scaling" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FACDCF9A-1B15-4701-AF47-5081E61B2EC7}" name="Meta-Scaling" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{4C7B52E4-70F3-406F-BA12-63D3CEE29BD6}" name="Rough Description"/>
-    <tableColumn id="9" xr3:uid="{5EEF630E-0173-4186-925F-07B2ED3CB11C}" name="Ironclad Card" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{5EEF630E-0173-4186-925F-07B2ED3CB11C}" name="Ironclad Card" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{FF97BE3B-6822-48D8-9BB3-BA851643F3B5}" name="LightDark"/>
     <tableColumn id="11" xr3:uid="{526884E1-6C09-414C-B061-3F6866506A22}" name="Column3"/>
     <tableColumn id="12" xr3:uid="{895BD373-09BB-4A34-BC99-2295D53CB894}" name="Column4"/>
     <tableColumn id="13" xr3:uid="{7EB349B8-880F-4662-8E29-52203C41895B}" name="Column5"/>
+    <tableColumn id="16386" xr3:uid="{59157AEF-CA4D-40E0-80F5-7F69CA2092D7}" name="Column6"/>
+    <tableColumn id="16387" xr3:uid="{37785683-7820-49FA-ABB3-39F94D6AF5A4}" name="Column7"/>
+    <tableColumn id="16388" xr3:uid="{71756F51-4075-4B96-B920-BF1A72DCBE14}" name="Column8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1243,11 +1372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA986D6-E9D6-4B2C-895B-951A495A36D0}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,19 +1391,19 @@
     <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="13" width="11" customWidth="1"/>
+    <col min="12" max="17" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -1282,58 +1411,67 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>117</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="N2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="9" t="b">
+      <c r="C3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="1"/>
@@ -1345,24 +1483,27 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-    </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="b">
+        <v>163</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>55</v>
@@ -1371,528 +1512,557 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1"/>
       <c r="J5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
       <c r="J6" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1"/>
       <c r="J9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="b">
+        <v>163</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>176</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="1"/>
+      <c r="I11" t="s">
+        <v>178</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="1"/>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="1"/>
       <c r="J19" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="1"/>
       <c r="J20" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="1"/>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="1"/>
       <c r="J22" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="1"/>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="C24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="1"/>
       <c r="I24" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="1"/>
       <c r="J25" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="1"/>
+      <c r="I26" t="s">
+        <v>173</v>
+      </c>
       <c r="J26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="1"/>
       <c r="J27" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="1"/>
       <c r="J28" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="b">
+        <v>165</v>
+      </c>
+      <c r="C29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="1"/>
@@ -1900,39 +2070,39 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="1"/>
       <c r="J30" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="b">
+        <v>165</v>
+      </c>
+      <c r="C31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H31" s="1"/>
@@ -1940,20 +2110,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="1"/>
       <c r="J32" s="2" t="s">
         <v>64</v>
@@ -1961,23 +2131,23 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>68</v>
@@ -1985,46 +2155,46 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7"/>
       <c r="H35" s="1"/>
       <c r="I35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>70</v>
@@ -2032,37 +2202,37 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="1"/>
       <c r="J36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="1"/>
       <c r="J37" s="2" t="s">
         <v>75</v>
@@ -2070,18 +2240,18 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="1"/>
       <c r="J38" s="2" t="s">
         <v>77</v>
@@ -2089,18 +2259,18 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="1"/>
       <c r="J39" s="2" t="s">
         <v>78</v>
@@ -2108,18 +2278,18 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="1"/>
       <c r="J40" s="2" t="s">
         <v>83</v>
@@ -2127,18 +2297,18 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="1"/>
       <c r="J41" s="2" t="s">
         <v>86</v>
@@ -2146,43 +2316,43 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="1"/>
       <c r="J42" s="2" t="s">
         <v>89</v>
       </c>
       <c r="K42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="1"/>
       <c r="I43" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>90</v>
@@ -2190,23 +2360,23 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10" t="b">
+        <v>165</v>
+      </c>
+      <c r="C44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>91</v>
@@ -2214,18 +2384,18 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C45" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
       <c r="H45" s="1"/>
       <c r="J45" s="2" t="s">
         <v>94</v>
@@ -2233,18 +2403,18 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="1"/>
       <c r="J46" s="2" t="s">
         <v>96</v>
@@ -2252,18 +2422,18 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="1"/>
       <c r="J47" s="2" t="s">
         <v>99</v>
@@ -2271,18 +2441,18 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="1"/>
       <c r="J48" s="2" t="s">
         <v>102</v>
@@ -2290,21 +2460,21 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="1"/>
       <c r="I49" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>103</v>
@@ -2312,56 +2482,62 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="1"/>
       <c r="J50" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="K50" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="1"/>
       <c r="J51" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="K51" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C52" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="1"/>
       <c r="J52" s="2" t="s">
         <v>106</v>
@@ -2369,18 +2545,18 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="1"/>
       <c r="J53" s="2" t="s">
         <v>107</v>
@@ -2388,18 +2564,18 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="1"/>
       <c r="J54" s="2" t="s">
         <v>108</v>
@@ -2407,18 +2583,18 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="1"/>
       <c r="J55" s="2" t="s">
         <v>109</v>
@@ -2426,21 +2602,21 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="1"/>
       <c r="I56" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>113</v>
@@ -2448,43 +2624,43 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="1"/>
       <c r="J57" s="2" t="s">
         <v>114</v>
       </c>
       <c r="K57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10" t="b">
+        <v>165</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>115</v>
@@ -2492,20 +2668,20 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="7"/>
       <c r="H59" s="1"/>
       <c r="J59" s="2" t="s">
         <v>116</v>
@@ -2513,18 +2689,18 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="1"/>
       <c r="I60" t="s">
         <v>44</v>
@@ -2535,16 +2711,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
       <c r="H61" s="1" t="b">
         <v>1</v>
       </c>
@@ -2560,18 +2736,18 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7"/>
       <c r="H62" s="1"/>
       <c r="J62" s="2" t="s">
         <v>48</v>
@@ -2579,20 +2755,20 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7"/>
       <c r="H63" s="1"/>
       <c r="J63" s="2" t="s">
         <v>49</v>
@@ -2600,18 +2776,18 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="1" t="b">
         <v>1</v>
       </c>
@@ -2621,42 +2797,45 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10" t="b">
+        <v>162</v>
+      </c>
+      <c r="C65" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="K65" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7"/>
       <c r="H66" s="1"/>
       <c r="J66" s="2" t="s">
         <v>54</v>
@@ -2664,18 +2843,18 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C67" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
       <c r="H67" s="1"/>
       <c r="J67" s="2" t="s">
         <v>59</v>
@@ -2683,40 +2862,43 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
       <c r="H68" s="1"/>
       <c r="J68" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="K68" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C69" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
       <c r="H69" s="1"/>
       <c r="I69" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>65</v>
@@ -2724,122 +2906,131 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
       <c r="H70" s="1"/>
       <c r="J70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K70" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="1"/>
       <c r="I71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
       <c r="H72" s="1"/>
+      <c r="I72" t="s">
+        <v>183</v>
+      </c>
       <c r="J72" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="K72" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C73" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
       <c r="H73" s="1"/>
       <c r="J73" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="K73" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10" t="b">
+        <v>162</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H74" s="1"/>
       <c r="J74" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="K74" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="C75" s="8"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H75" s="12"/>
+      <c r="H75" s="9"/>
       <c r="J75" s="2" t="s">
         <v>111</v>
       </c>
@@ -2854,54 +3045,54 @@
         <v>1/21/35/16</v>
       </c>
       <c r="C76">
-        <f>COUNTIF(C3:C75,"TRUE")</f>
+        <f t="shared" ref="C76:H76" si="0">COUNTIF(C3:C75,"TRUE")</f>
         <v>37</v>
       </c>
       <c r="D76">
-        <f>COUNTIF(D3:D75,"TRUE")</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E76">
-        <f>COUNTIF(E3:E75,"TRUE")</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="F76">
-        <f>COUNTIF(F3:F75,"TRUE")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G76">
-        <f>COUNTIF(G3:G75,"TRUE")</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H76">
-        <f>COUNTIF(H3:H75,"TRUE")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="C77" s="14">
+      <c r="A77" s="10"/>
+      <c r="C77" s="11">
         <f>C76/73</f>
         <v>0.50684931506849318</v>
       </c>
-      <c r="D77" s="14">
-        <f t="shared" ref="D77:H77" si="0">D76/73</f>
+      <c r="D77" s="11">
+        <f t="shared" ref="D77:H77" si="1">D76/73</f>
         <v>0.27397260273972601</v>
       </c>
-      <c r="E77" s="14">
-        <f t="shared" si="0"/>
-        <v>0.16438356164383561</v>
-      </c>
-      <c r="F77" s="14">
-        <f t="shared" si="0"/>
+      <c r="E77" s="11">
+        <f t="shared" si="1"/>
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" si="1"/>
         <v>9.5890410958904104E-2</v>
       </c>
-      <c r="G77" s="14">
-        <f t="shared" si="0"/>
+      <c r="G77" s="11">
+        <f t="shared" si="1"/>
         <v>0.1095890410958904</v>
       </c>
-      <c r="H77" s="14">
-        <f t="shared" si="0"/>
+      <c r="H77" s="11">
+        <f t="shared" si="1"/>
         <v>2.7397260273972601E-2</v>
       </c>
     </row>
@@ -2909,6 +3100,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2919,30 +3111,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4234A8-B700-4C1E-8E98-8A7AFDFE53C4}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +3245,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,6 +3255,7 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -3017,6 +3265,33 @@
       <c r="B1" t="s">
         <v>25</v>
       </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zacc\Documents\StS Modding\StS-DefaultModBase-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z.emanuel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12CF03-6BF0-4B87-9CE6-9950F2E6D65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C8EC40-2D2C-4A36-8E25-68977EDBB2AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="1995" windowWidth="17220" windowHeight="12750" xr2:uid="{810DA3B1-C32A-4683-9C56-556E1105B840}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{810DA3B1-C32A-4683-9C56-556E1105B840}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Slots" sheetId="4" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="158">
   <si>
     <t>Character Name</t>
   </si>
@@ -504,6 +502,12 @@
   </si>
   <si>
     <t>~Vampire Bat</t>
+  </si>
+  <si>
+    <t>Strikes</t>
+  </si>
+  <si>
+    <t>Dark Ritual</t>
   </si>
 </sst>
 </file>
@@ -908,19 +912,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA986D6-E9D6-4B2C-895B-951A495A36D0}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>128</v>
@@ -930,7 +934,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -941,7 +945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -955,7 +959,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -963,7 +967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -971,7 +975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>126</v>
       </c>
@@ -979,7 +983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -987,7 +991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>126</v>
       </c>
@@ -995,7 +999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>126</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>126</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>126</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>126</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>126</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>126</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>126</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>126</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>126</v>
       </c>
@@ -1156,8 +1160,11 @@
       <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>126</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1176,7 +1183,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -1187,7 +1194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -1198,7 +1205,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -1209,7 +1216,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -1217,7 +1224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>126</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -1233,7 +1240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>126</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>126</v>
       </c>
@@ -1249,7 +1256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -1260,7 +1267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -1271,7 +1278,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>134</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>126</v>
       </c>
@@ -1298,7 +1305,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
@@ -1306,7 +1313,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -1317,7 +1324,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>126</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -1347,7 +1354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>126</v>
       </c>
@@ -1358,7 +1365,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>126</v>
       </c>
@@ -1369,7 +1376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>126</v>
       </c>
@@ -1380,7 +1387,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>125</v>
       </c>
@@ -1391,7 +1398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -1402,7 +1409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>126</v>
       </c>
@@ -1410,7 +1417,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>126</v>
       </c>
@@ -1426,7 +1433,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>126</v>
       </c>
@@ -1453,7 +1460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -1461,7 +1468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>44</v>
       </c>
@@ -1469,7 +1476,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>126</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>126</v>
       </c>
@@ -1485,7 +1492,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>126</v>
       </c>
@@ -1493,7 +1500,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>126</v>
       </c>
@@ -1501,7 +1508,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>126</v>
       </c>
@@ -1509,7 +1516,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>126</v>
       </c>
@@ -1517,7 +1524,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>126</v>
       </c>
@@ -1525,7 +1532,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>126</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>44</v>
       </c>
@@ -1552,7 +1559,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -1563,7 +1570,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>126</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>126</v>
       </c>
@@ -1582,7 +1589,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>126</v>
       </c>
@@ -1590,7 +1597,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>126</v>
       </c>
@@ -1612,22 +1619,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1639,40 +1646,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A04FBC-B621-4E16-AFA8-4D9846FF85EC}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1688,16 +1700,16 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>

--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zacc\Documents\StS Modding\StS-DefaultModBase-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EC0DCC-523C-4F54-A509-F309A031F4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F89F96-1FBA-483B-B88B-20CE68E5E2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{810DA3B1-C32A-4683-9C56-556E1105B840}"/>
+    <workbookView xWindow="10770" yWindow="1860" windowWidth="14235" windowHeight="12750" firstSheet="1" activeTab="1" xr2:uid="{810DA3B1-C32A-4683-9C56-556E1105B840}"/>
   </bookViews>
   <sheets>
     <sheet name="(Ironclad) Card Slots" sheetId="4" r:id="rId1"/>
-    <sheet name="Mechanics" sheetId="1" r:id="rId2"/>
-    <sheet name="Archetypes" sheetId="5" r:id="rId3"/>
-    <sheet name="Names and Flavour" sheetId="3" r:id="rId4"/>
+    <sheet name="Cards" sheetId="6" r:id="rId2"/>
+    <sheet name="Mechanics" sheetId="1" r:id="rId3"/>
+    <sheet name="Archetypes" sheetId="5" r:id="rId4"/>
+    <sheet name="Names and Flavour" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="265">
   <si>
     <t>Character Name</t>
   </si>
@@ -684,13 +685,160 @@
   </si>
   <si>
     <t>If the card with cycling is in your hand at the end of your turn, draw an extra card next turn</t>
+  </si>
+  <si>
+    <t>Draw Block</t>
+  </si>
+  <si>
+    <t>Draw Damage</t>
+  </si>
+  <si>
+    <t>Burnout</t>
+  </si>
+  <si>
+    <t>Stone to Flesh</t>
+  </si>
+  <si>
+    <t>Light Attack</t>
+  </si>
+  <si>
+    <t>Dark Block</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>10 dmg 2 cards</t>
+  </si>
+  <si>
+    <t>10 block 2 cards</t>
+  </si>
+  <si>
+    <t>Deal Light damage, reduce light by one, repeat. Exhaust.</t>
+  </si>
+  <si>
+    <t>Block becomes soul health</t>
+  </si>
+  <si>
+    <t>Vampire Bat</t>
+  </si>
+  <si>
+    <t>6 + Light Attack</t>
+  </si>
+  <si>
+    <t>5 + Dark Block</t>
+  </si>
+  <si>
+    <t>6 dmg, soul heal 2</t>
+  </si>
+  <si>
+    <t>3 dmg, soul heal 1</t>
+  </si>
+  <si>
+    <t>Fog</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Gain 4X Smoke</t>
+  </si>
+  <si>
+    <t>Gain 9 Smoke</t>
+  </si>
+  <si>
+    <t>Penance</t>
+  </si>
+  <si>
+    <t>Gain 4 Thorns</t>
+  </si>
+  <si>
+    <t>Reprisal</t>
+  </si>
+  <si>
+    <t>Deal damage equal to the damage the opponent would deal</t>
+  </si>
+  <si>
+    <t>Thrashing</t>
+  </si>
+  <si>
+    <t>Gain 2 Thorns each turn</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Love playing with this card</t>
+  </si>
+  <si>
+    <t>Solid simple card, I like the numbers</t>
+  </si>
+  <si>
+    <t>Good card, I think this is in the right place</t>
+  </si>
+  <si>
+    <t>Will need to fudge the numbers as I work out the light/dark mechanic and the base relic</t>
+  </si>
+  <si>
+    <t>Not sure if I love the smoke mechanic but I really like the X smoke spell</t>
+  </si>
+  <si>
+    <t>Weird to arrange this to not be too strong or too weak, smoke is a situational mechanic</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Supplant</t>
+  </si>
+  <si>
+    <t>Oust</t>
+  </si>
+  <si>
+    <t>Ends in hand</t>
+  </si>
+  <si>
+    <t>Does X effect if the card ends the turn in your hand</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>Neglect</t>
+  </si>
+  <si>
+    <t>Left Behind</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you defeat an Elite or Boss, permanently gain one dark </t>
+  </si>
+  <si>
+    <t>Escalating Strike</t>
+  </si>
+  <si>
+    <t>Soul Guard</t>
+  </si>
+  <si>
+    <t>Convalesce</t>
+  </si>
+  <si>
+    <t>Burning Blood</t>
+  </si>
+  <si>
+    <t>StrDex Power</t>
+  </si>
+  <si>
+    <t>Purge the Sinful</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +911,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCD8989"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -936,7 +1091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -956,6 +1111,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -965,6 +1123,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,6 +1182,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCD8989"/>
       <color rgb="FFD0B4D1"/>
       <color rgb="FFD7CFD7"/>
       <color rgb="FFDDDDDD"/>
@@ -1032,7 +1192,6 @@
       <color rgb="FF986FCF"/>
       <color rgb="FFFBD637"/>
       <color rgb="FFFFB41D"/>
-      <color rgb="FFFFCC66"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1396,14 +1555,14 @@
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -3110,11 +3269,268 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D547447-4926-4481-8423-F6A5FE392DD4}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4234A8-B700-4C1E-8E98-8A7AFDFE53C4}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,12 +3608,20 @@
         <v>215</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A04FBC-B621-4E16-AFA8-4D9846FF85EC}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -3240,12 +3664,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95061868-5DC1-450C-B0FA-CC89F041A52E}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3425,6 +3849,31 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
